--- a/maps/rides_back/api_allocate.xlsx
+++ b/maps/rides_back/api_allocate.xlsx
@@ -604,12 +604,12 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Ethan Yu</t>
+          <t>Grace Park</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>Christina Ko</t>
+          <t>JJ Lee</t>
         </is>
       </c>
       <c r="F3" s="7" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darius Ajebon </t>
+          <t>Lucy Han</t>
         </is>
       </c>
       <c r="J3" s="8" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>Grace Park</t>
+          <t>Sehyun Jung</t>
         </is>
       </c>
       <c r="L3" s="6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="M3" s="9" t="inlineStr">
         <is>
-          <t>Taeho Choe</t>
+          <t>Hannah Kim</t>
         </is>
       </c>
       <c r="N3" s="9" t="inlineStr">
         <is>
-          <t>Jiwang Lee</t>
+          <t>Aaron duong</t>
         </is>
       </c>
       <c r="O3" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Kim </t>
+          <t>Lucy Han</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Joanna Wei</t>
+          <t>Christina Ko</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>Ella Lu</t>
+          <t>Benjamin Kim</t>
         </is>
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>Lucy Han</t>
+          <t>helena song</t>
         </is>
       </c>
       <c r="J4" s="10" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>Sehyun Jung</t>
+          <t>Christina Ko</t>
         </is>
       </c>
       <c r="L4" s="7" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="M4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">derek liang </t>
+          <t>Rachel Kim</t>
         </is>
       </c>
       <c r="N4" s="9" t="inlineStr">
         <is>
-          <t>Rachel Kim</t>
+          <t>Daniel Kuo</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Darius Ajebon </t>
+          <t xml:space="preserve">Daniel Kim </t>
         </is>
       </c>
     </row>
@@ -723,22 +723,22 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>JJ Lee</t>
+          <t>Sehyun Jung</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>Grace Park</t>
+          <t>Joanna Wei</t>
         </is>
       </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>Grace Kwon</t>
+          <t>Israel Haile</t>
         </is>
       </c>
       <c r="G5" s="9" t="inlineStr">
         <is>
-          <t>Taeho Choe</t>
+          <t xml:space="preserve">Maya Habraken </t>
         </is>
       </c>
       <c r="J5" s="11" t="inlineStr">
@@ -753,64 +753,64 @@
       </c>
       <c r="L5" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">derek liang </t>
+        </is>
+      </c>
+      <c r="M5" s="9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Grace Sowon Park </t>
         </is>
       </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>Hannah Kim</t>
-        </is>
-      </c>
       <c r="N5" s="9" t="inlineStr">
         <is>
-          <t>Aaron duong</t>
+          <t>Israel Haile</t>
         </is>
       </c>
       <c r="O5" s="6" t="inlineStr">
         <is>
-          <t>Lucy Han</t>
+          <t xml:space="preserve">Darius Ajebon </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Sehyun Jung</t>
+          <t>Nathanael Wang</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>Nathanael Wang</t>
+          <t>Ethan Yu</t>
         </is>
       </c>
       <c r="F6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maya Habraken </t>
+          <t>Hyeongjun Son</t>
         </is>
       </c>
       <c r="G6" s="9" t="inlineStr">
         <is>
-          <t>Israel Haile</t>
+          <t>Ella Lu</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>Christina Ko</t>
+          <t>Grace Park</t>
         </is>
       </c>
       <c r="L6" s="9" t="inlineStr">
         <is>
+          <t>Taeho Choe</t>
+        </is>
+      </c>
+      <c r="M6" s="9" t="inlineStr">
+        <is>
           <t>Kyle Hwang</t>
         </is>
       </c>
-      <c r="M6" s="9" t="inlineStr">
-        <is>
-          <t>Daniel Kuo</t>
-        </is>
-      </c>
       <c r="N6" s="9" t="inlineStr">
         <is>
-          <t>Israel Haile</t>
+          <t>Jiwang Lee</t>
         </is>
       </c>
       <c r="O6" s="6" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
+          <t>Gabriel Ni</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="inlineStr">
+        <is>
           <t>Jocelyn Youn</t>
-        </is>
-      </c>
-      <c r="M10" s="6" t="inlineStr">
-        <is>
-          <t>Gabriel Ni</t>
         </is>
       </c>
       <c r="N10" s="1" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="11">
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>helena song</t>
+          <t>Gabriel Ni</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="F11" s="9" t="inlineStr">
         <is>
-          <t>Kyle Hwang</t>
+          <t>Grace Kwon</t>
         </is>
       </c>
       <c r="G11" s="9" t="inlineStr">
         <is>
-          <t>Hannah Kim</t>
+          <t xml:space="preserve">derek liang </t>
         </is>
       </c>
       <c r="K11" s="7" t="inlineStr">
@@ -970,24 +970,24 @@
     <row r="12">
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Gabriel Ni</t>
+          <t>Jocelyn Youn</t>
         </is>
       </c>
       <c r="F12" s="9" t="inlineStr">
         <is>
+          <t>Aaron duong</t>
+        </is>
+      </c>
+      <c r="G12" s="9" t="inlineStr">
+        <is>
+          <t>Hannah Kim</t>
+        </is>
+      </c>
+      <c r="K12" s="9" t="inlineStr">
+        <is>
           <t>Joann Jung</t>
         </is>
       </c>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Daniel Kuo</t>
-        </is>
-      </c>
-      <c r="K12" s="9" t="inlineStr">
-        <is>
-          <t>Joann Jung</t>
-        </is>
-      </c>
       <c r="L12" s="7" t="inlineStr">
         <is>
           <t>Sam Ko</t>
@@ -995,34 +995,34 @@
       </c>
       <c r="M12" s="9" t="inlineStr">
         <is>
-          <t>Elie Park</t>
+          <t>Hyeongjun Son</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Jocelyn Youn</t>
+          <t xml:space="preserve">Darius Ajebon </t>
         </is>
       </c>
       <c r="F13" s="9" t="inlineStr">
         <is>
+          <t>Joann Jung</t>
+        </is>
+      </c>
+      <c r="G13" s="9" t="inlineStr">
+        <is>
           <t>Jiwang Lee</t>
         </is>
       </c>
-      <c r="G13" s="9" t="inlineStr">
+      <c r="K13" s="9" t="inlineStr">
+        <is>
+          <t>Ella Lu</t>
+        </is>
+      </c>
+      <c r="M13" s="9" t="inlineStr">
         <is>
           <t>Elie Park</t>
-        </is>
-      </c>
-      <c r="K13" s="9" t="inlineStr">
-        <is>
-          <t>Hyeongjun Son</t>
-        </is>
-      </c>
-      <c r="M13" s="9" t="inlineStr">
-        <is>
-          <t>Ella Lu</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daniel Kim </t>
+          <t>Daniel Song</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="F17" s="9" t="inlineStr">
         <is>
-          <t>Benjamin Kim</t>
+          <t>Hannah Zhang</t>
         </is>
       </c>
       <c r="G17" s="9" t="inlineStr">
         <is>
-          <t>Jeffery Huang</t>
+          <t>Elie Park</t>
         </is>
       </c>
       <c r="K17" s="9" t="inlineStr">
         <is>
-          <t>Hannah Zhang</t>
+          <t xml:space="preserve">Maya Habraken </t>
         </is>
       </c>
       <c r="L17" s="6" t="inlineStr">
@@ -1125,22 +1125,22 @@
     <row r="18">
       <c r="D18" s="6" t="inlineStr">
         <is>
-          <t>Daniel Song</t>
+          <t xml:space="preserve">Daniel Kim </t>
         </is>
       </c>
       <c r="F18" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">derek liang </t>
+          <t>Daniel Kuo</t>
         </is>
       </c>
       <c r="G18" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">Grace Sowon Park </t>
+        </is>
+      </c>
+      <c r="K18" s="9" t="inlineStr">
+        <is>
           <t>Hannah Zhang</t>
-        </is>
-      </c>
-      <c r="K18" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maya Habraken </t>
         </is>
       </c>
       <c r="O18" s="7" t="inlineStr">
@@ -1152,12 +1152,12 @@
     <row r="19">
       <c r="F19" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grace Sowon Park </t>
+          <t>Kyle Hwang</t>
         </is>
       </c>
       <c r="G19" s="9" t="inlineStr">
         <is>
-          <t>Rachel Kim</t>
+          <t>Jeffery Huang</t>
         </is>
       </c>
       <c r="K19" s="9" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="20">
       <c r="F20" s="9" t="inlineStr">
         <is>
-          <t>Aaron duong</t>
+          <t>Rachel Kim</t>
         </is>
       </c>
       <c r="G20" s="9" t="inlineStr">
         <is>
-          <t>Hyeongjun Son</t>
+          <t>Taeho Choe</t>
         </is>
       </c>
       <c r="K20" s="9" t="inlineStr">
